--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,151 +49,169 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>give</t>
   </si>
   <si>
     <t>staff</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>retail</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>delivery</t>
+  </si>
+  <si>
     <t>local</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
+    <t>health</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>via</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>grocery</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>toilet</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>san</t>
   </si>
   <si>
     <t>corona</t>
@@ -560,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4726027397260274</v>
+        <v>0.4589041095890411</v>
       </c>
       <c r="C3">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D3">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,28 +665,28 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N3">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -679,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1104651162790698</v>
+        <v>0.1027131782945736</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,28 +715,28 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.9482758620689655</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4">
         <v>56</v>
       </c>
       <c r="N4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -729,22 +747,22 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.9111111111111111</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5">
         <v>42</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -755,25 +773,25 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8717948717948718</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="N6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -781,22 +799,22 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8623853211009175</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M7">
         <v>97</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>15</v>
@@ -807,13 +825,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -825,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -833,25 +851,25 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.8188976377952756</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="L9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -859,25 +877,25 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7875</v>
+        <v>0.8515625</v>
       </c>
       <c r="L10">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="M10">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="N10">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -885,13 +903,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -903,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -911,13 +929,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.7692307692307693</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -929,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -937,25 +955,25 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.7658227848101266</v>
+        <v>0.75625</v>
       </c>
       <c r="L13">
         <v>121</v>
       </c>
       <c r="M13">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N13">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -963,25 +981,25 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.7192982456140351</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -989,25 +1007,25 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.693069306930693</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L15">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="N15">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1015,25 +1033,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6609442060085837</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L16">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="M16">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1041,25 +1059,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6470588235294118</v>
+        <v>0.6903765690376569</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="M17">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="N17">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1067,25 +1085,25 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6382978723404256</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1093,25 +1111,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6222222222222222</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="L19">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N19">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1119,13 +1137,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.6197183098591549</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1137,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1145,13 +1163,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5957446808510638</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1163,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1171,13 +1189,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5490196078431373</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1189,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1197,25 +1215,25 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5349544072948328</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L23">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1223,25 +1241,25 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.53125</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1249,25 +1267,25 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.4659090909090909</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1275,25 +1293,25 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.4558823529411765</v>
+        <v>0.48</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1301,25 +1319,25 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4261168384879725</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L27">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>167</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1327,25 +1345,25 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.4214659685863874</v>
+        <v>0.464406779661017</v>
       </c>
       <c r="L28">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M28">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>221</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1353,13 +1371,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.42</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1371,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1379,13 +1397,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.2371134020618557</v>
+        <v>0.422976501305483</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1397,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>74</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1405,13 +1423,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.2325581395348837</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L31">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1423,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>165</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1431,25 +1449,25 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.2307692307692308</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="L32">
         <v>30</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N32">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1457,25 +1475,25 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.2289156626506024</v>
+        <v>0.296875</v>
       </c>
       <c r="L33">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>320</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1483,25 +1501,25 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.1772151898734177</v>
+        <v>0.2416267942583732</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>130</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1509,13 +1527,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.1717791411042945</v>
+        <v>0.2406015037593985</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1527,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1535,25 +1553,25 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.1592356687898089</v>
+        <v>0.2372093023255814</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>132</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1561,13 +1579,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.1538461538461539</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1579,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1587,25 +1605,25 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.1307506053268765</v>
+        <v>0.2012578616352201</v>
       </c>
       <c r="L38">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>359</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1613,25 +1631,25 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.1101694915254237</v>
+        <v>0.1605839416058394</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>210</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1639,25 +1657,25 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.1032547699214366</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="L40">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>799</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1665,25 +1683,25 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.09882903981264637</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="L41">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1924</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1691,25 +1709,25 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.09859154929577464</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N42">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>192</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1717,25 +1735,25 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.09677419354838709</v>
+        <v>0.1298076923076923</v>
       </c>
       <c r="L43">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="M43">
-        <v>307</v>
+        <v>54</v>
       </c>
       <c r="N43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2800</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1743,25 +1761,25 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.09509202453987731</v>
+        <v>0.1252796420581656</v>
       </c>
       <c r="L44">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>295</v>
+        <v>782</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1769,25 +1787,25 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.08357348703170028</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>318</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1795,13 +1813,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.08260869565217391</v>
+        <v>0.1060171919770774</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1813,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>211</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1821,25 +1839,25 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.08229813664596274</v>
+        <v>0.1039755351681957</v>
       </c>
       <c r="L47">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="M47">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="N47">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>591</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1847,25 +1865,25 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.07915273132664437</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="L48">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="M48">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>826</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1873,25 +1891,25 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.07433628318584071</v>
+        <v>0.09939337377508166</v>
       </c>
       <c r="L49">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="M49">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="N49">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>523</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1899,25 +1917,25 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.06597222222222222</v>
+        <v>0.09816543289346637</v>
       </c>
       <c r="L50">
-        <v>57</v>
+        <v>305</v>
       </c>
       <c r="M50">
-        <v>60</v>
+        <v>305</v>
       </c>
       <c r="N50">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>807</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1925,13 +1943,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.05761316872427984</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L51">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M51">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1943,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>458</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1951,25 +1969,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.05070422535211268</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="L52">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="M52">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="N52">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>3033</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1977,25 +1995,25 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.04317789291882556</v>
+        <v>0.09282700421940929</v>
       </c>
       <c r="L53">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N53">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>1108</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2003,25 +2021,181 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.01975051975051975</v>
+        <v>0.08990011098779134</v>
       </c>
       <c r="L54">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="N54">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>943</v>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55">
+        <v>0.08153846153846153</v>
+      </c>
+      <c r="L55">
+        <v>53</v>
+      </c>
+      <c r="M55">
+        <v>53</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56">
+        <v>0.0726643598615917</v>
+      </c>
+      <c r="L56">
+        <v>63</v>
+      </c>
+      <c r="M56">
+        <v>63</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57">
+        <v>0.07231040564373897</v>
+      </c>
+      <c r="L57">
+        <v>41</v>
+      </c>
+      <c r="M57">
+        <v>41</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58">
+        <v>0.05217119650109341</v>
+      </c>
+      <c r="L58">
+        <v>167</v>
+      </c>
+      <c r="M58">
+        <v>167</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59">
+        <v>0.05167958656330749</v>
+      </c>
+      <c r="L59">
+        <v>60</v>
+      </c>
+      <c r="M59">
+        <v>60</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K60">
+        <v>0.02789256198347108</v>
+      </c>
+      <c r="L60">
+        <v>27</v>
+      </c>
+      <c r="M60">
+        <v>27</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>941</v>
       </c>
     </row>
   </sheetData>
